--- a/biology/Zoologie/Bruant_pentaligne/Bruant_pentaligne.xlsx
+++ b/biology/Zoologie/Bruant_pentaligne/Bruant_pentaligne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphispizopsis quinquestriata
-Le Bruant pentaligne[1] (Amphispizopsis quinquestriata) est une espèce de passereaux de la famille des Passerellidae. Cet oiseau se rencontre au Mexique et en Arizona.
+Le Bruant pentaligne (Amphispizopsis quinquestriata) est une espèce de passereaux de la famille des Passerellidae. Cet oiseau se rencontre au Mexique et en Arizona.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 mai 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 mai 2023) :
 Amphispizopsis quinquestriata quinquestriata (Sclater &amp; Salvin, 1868)
 Amphispizopsis quinquestriata septentrionalis (van Rossem, 1934)</t>
         </is>
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Amphispiza quinquestriata (P.L.Sclater &amp; Salvin, 1868)[1].
-L'espèce a été initialement classée dans le genre Zonotrichia sous le protonyme Zonotrichia quinquestriata P.L.Sclater &amp; Salvin, 1868[2],[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bruant pentaligne[1].
-Amphispiza quinquestriata a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Amphispiza quinquestriata (P.L.Sclater &amp; Salvin, 1868).
+L'espèce a été initialement classée dans le genre Zonotrichia sous le protonyme Zonotrichia quinquestriata P.L.Sclater &amp; Salvin, 1868,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bruant pentaligne.
+Amphispiza quinquestriata a pour synonymes :
 Zonotrichia quinquestriata P.L.Sclater &amp; Salvin, 1868
 Aimophila quinquestriata (P.L.Sclater &amp; Salvin, 1868)</t>
         </is>
@@ -579,9 +595,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin quinque, « cinq », et striata, « rayure », lui a été donnée en référence au cinq lignes blanches qui partent de son bec[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin quinque, « cinq », et striata, « rayure », lui a été donnée en référence au cinq lignes blanches qui partent de son bec.
 Son nom vernaculaire, « pentaligne », a la même origine avec le préfixe en grec ancien πέντε, pente, « cinq ».
 </t>
         </is>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en + la) P. L. Sclater et Osbert Salvin, « Descriptions of New or little-known American Birds of the Families Fringillidae, Oxyrhamphidae, Bucconidae, and Strigidae », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 1868,‎ 28 mai 1868, p. 322-329 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, lire en ligne)</t>
         </is>
